--- a/salary/Mangrove Eid Bunse June-24 .xlsx
+++ b/salary/Mangrove Eid Bunse June-24 .xlsx
@@ -5,16 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shaki\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mangrove\salary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7009B097-1784-462E-9634-BB97C101AC92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC452489-0DE1-4632-A0AC-065857A56062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="9180" yWindow="3735" windowWidth="12000" windowHeight="7875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Receiable_Mar-24" sheetId="2" r:id="rId1"/>
-    <sheet name="Eid June-24" sheetId="1" r:id="rId2"/>
+    <sheet name="Eid June-24" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,40 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="53">
-  <si>
-    <t>Shera pqtner Nov 2023</t>
-  </si>
-  <si>
-    <t>Tagrat</t>
-  </si>
-  <si>
-    <t>Achive</t>
-  </si>
-  <si>
-    <t>Amount</t>
-  </si>
-  <si>
-    <t>Rechaere</t>
-  </si>
-  <si>
-    <t>SC CARD</t>
-  </si>
-  <si>
-    <t>Bundlie</t>
-  </si>
-  <si>
-    <t>GA</t>
-  </si>
-  <si>
-    <t>GA  Achive par pic 13.5 tk</t>
-  </si>
-  <si>
-    <t>LSO &amp; SSO</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
   <si>
     <t>MANGROVE Communication</t>
   </si>
@@ -200,7 +166,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -224,14 +190,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -288,7 +246,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -303,31 +261,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,77 +358,73 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="7" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -502,49 +432,43 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1708,122 +1632,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="3">
-        <f>'Eid June-24'!I11</f>
-        <v>0</v>
-      </c>
-      <c r="C2" s="4">
-        <f>'Eid June-24'!J11</f>
-        <v>0</v>
-      </c>
-      <c r="D2" s="5"/>
-    </row>
-    <row r="3" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5"/>
-    </row>
-    <row r="4" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="5"/>
-    </row>
-    <row r="5" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="3">
-        <f>'Eid June-24'!E11</f>
-        <v>0</v>
-      </c>
-      <c r="C5" s="4">
-        <f>'Eid June-24'!F11</f>
-        <v>0</v>
-      </c>
-      <c r="D5" s="5"/>
-    </row>
-    <row r="6" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="8">
-        <f>C6*13.5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8"/>
-    </row>
-    <row r="8" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A8" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="10">
-        <f>SUM(D2:D7)</f>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:P19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1836,621 +1652,621 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
+      <c r="A1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
     </row>
     <row r="2" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42"/>
-      <c r="P2" s="11"/>
+      <c r="A2" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="N3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="O3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="P3" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="L3" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="M3" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="N3" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="O3" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="P3" s="12" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="14">
+      <c r="A4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="4">
         <v>1409935200</v>
       </c>
-      <c r="C4" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="18" t="e">
+      <c r="C4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="8" t="e">
         <f t="shared" ref="G4:G11" si="0">F4*1/E4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H4" s="19"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="18" t="e">
+      <c r="H4" s="9"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="8" t="e">
         <f t="shared" ref="K4:K11" si="1">J4*1/I4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L4" s="21"/>
-      <c r="M4" s="22">
+      <c r="L4" s="11"/>
+      <c r="M4" s="12">
         <f t="shared" ref="M4:M7" si="2">L4+H4</f>
         <v>0</v>
       </c>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22">
+      <c r="N4" s="12"/>
+      <c r="O4" s="12">
         <v>0</v>
       </c>
-      <c r="P4" s="23">
+      <c r="P4" s="13">
         <f>L4+H4+O4</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="14">
+      <c r="A5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="4">
         <v>1967020280</v>
       </c>
-      <c r="C5" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="16"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="18" t="e">
+      <c r="C5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H5" s="19"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="18" t="e">
+      <c r="H5" s="9"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="8" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L5" s="21"/>
-      <c r="M5" s="22">
+      <c r="L5" s="11"/>
+      <c r="M5" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22">
+      <c r="N5" s="12"/>
+      <c r="O5" s="12">
         <v>0</v>
       </c>
-      <c r="P5" s="23">
+      <c r="P5" s="13">
         <f t="shared" ref="P5:P7" si="3">L5+H5+O5</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="14">
+      <c r="A6" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="4">
         <v>1984225578</v>
       </c>
-      <c r="C6" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="18" t="e">
+      <c r="C6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H6" s="19"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="18" t="e">
+      <c r="H6" s="9"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="8" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L6" s="21"/>
-      <c r="M6" s="22">
+      <c r="L6" s="11"/>
+      <c r="M6" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22">
+      <c r="N6" s="12"/>
+      <c r="O6" s="12">
         <v>1500</v>
       </c>
-      <c r="P6" s="23">
+      <c r="P6" s="13">
         <f t="shared" si="3"/>
         <v>1500</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="14">
+      <c r="A7" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="4">
         <v>1984225580</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="16"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="18" t="e">
+      <c r="C7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H7" s="19"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="18" t="e">
+      <c r="H7" s="9"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="8" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L7" s="21"/>
-      <c r="M7" s="22">
+      <c r="L7" s="11"/>
+      <c r="M7" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22">
+      <c r="N7" s="12"/>
+      <c r="O7" s="12">
         <v>0</v>
       </c>
-      <c r="P7" s="23">
+      <c r="P7" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="24"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="18" t="e">
+      <c r="A8" s="14"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H8" s="19"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="23"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="13"/>
     </row>
     <row r="9" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="24"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="18" t="e">
+      <c r="A9" s="14"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H9" s="19"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="23"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="13"/>
     </row>
     <row r="10" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="24"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="18" t="e">
+      <c r="A10" s="14"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H10" s="25"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="23"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="13"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="27">
+      <c r="A11" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="17">
         <f>SUM(E4:E10)</f>
         <v>0</v>
       </c>
-      <c r="F11" s="28">
+      <c r="F11" s="18">
         <f>SUM(F4:F10)</f>
         <v>0</v>
       </c>
-      <c r="G11" s="18" t="e">
+      <c r="G11" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H11" s="28">
+      <c r="H11" s="18">
         <f>SUM(H4:H7)</f>
         <v>0</v>
       </c>
-      <c r="I11" s="28">
+      <c r="I11" s="18">
         <f>SUM(I4:I7)</f>
         <v>0</v>
       </c>
-      <c r="J11" s="28">
+      <c r="J11" s="18">
         <f>SUM(J4:J7)</f>
         <v>0</v>
       </c>
-      <c r="K11" s="29" t="e">
+      <c r="K11" s="19" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L11" s="28">
+      <c r="L11" s="18">
         <f>SUM(L4:L7)</f>
         <v>0</v>
       </c>
-      <c r="M11" s="28">
+      <c r="M11" s="18">
         <f>SUM(M4:M7)</f>
         <v>0</v>
       </c>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28">
+      <c r="N11" s="18"/>
+      <c r="O11" s="18">
         <f>SUM(O4:O7)</f>
         <v>1500</v>
       </c>
-      <c r="P11" s="28">
+      <c r="P11" s="18">
         <f>SUM(P4:P7)</f>
         <v>1500</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="44" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="45"/>
-      <c r="K12" s="45"/>
-      <c r="L12" s="45"/>
-      <c r="M12" s="45"/>
-      <c r="N12" s="45"/>
-      <c r="O12" s="45"/>
-      <c r="P12" s="46"/>
+      <c r="A12" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="35"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="36"/>
     </row>
     <row r="13" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="30"/>
-      <c r="B13" s="12" t="s">
+      <c r="A13" s="20"/>
+      <c r="B13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="I13" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="J13" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="K13" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="L13" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O13" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="I13" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="J13" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="K13" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="L13" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="M13" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="N13" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="O13" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="P13" s="12" t="s">
-        <v>25</v>
+      <c r="P13" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B14" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="15">
+      <c r="B14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="5">
         <v>1996600200</v>
       </c>
-      <c r="E14" s="33">
+      <c r="E14" s="23">
         <f>E11</f>
         <v>0</v>
       </c>
-      <c r="F14" s="33">
+      <c r="F14" s="23">
         <f>F11</f>
         <v>0</v>
       </c>
-      <c r="G14" s="29" t="e">
+      <c r="G14" s="19" t="e">
         <f t="shared" ref="G14" si="4">F14*1/E14</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H14" s="34"/>
-      <c r="I14" s="35">
+      <c r="H14" s="24"/>
+      <c r="I14" s="25">
         <f>I11</f>
         <v>0</v>
       </c>
-      <c r="J14" s="35">
+      <c r="J14" s="25">
         <v>5220090</v>
       </c>
-      <c r="K14" s="29" t="e">
+      <c r="K14" s="19" t="e">
         <f t="shared" ref="K14" si="5">J14*1/I14</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L14" s="36"/>
-      <c r="M14" s="37">
+      <c r="L14" s="26"/>
+      <c r="M14" s="27">
         <f>L14+H14</f>
         <v>0</v>
       </c>
-      <c r="N14" s="37"/>
-      <c r="O14" s="37">
+      <c r="N14" s="27"/>
+      <c r="O14" s="27">
         <v>5000</v>
       </c>
-      <c r="P14" s="23">
+      <c r="P14" s="13">
         <f>N14+M14+O14</f>
         <v>5000</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B15" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="15">
+      <c r="B15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="5">
         <v>1964151517</v>
       </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15">
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5">
         <v>1000</v>
       </c>
-      <c r="P15" s="23">
+      <c r="P15" s="13">
         <f t="shared" ref="P15:P17" si="6">N15+M15+O15</f>
         <v>1000</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B16" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="15">
+      <c r="B16" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5">
         <v>2000</v>
       </c>
-      <c r="P16" s="23">
+      <c r="P16" s="13">
         <f t="shared" si="6"/>
         <v>2000</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B17" s="15"/>
-      <c r="C17" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="11">
+      <c r="B17" s="5"/>
+      <c r="C17" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="1">
         <v>1905538004</v>
       </c>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15">
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5">
         <v>500</v>
       </c>
-      <c r="P17" s="23">
+      <c r="P17" s="13">
         <f t="shared" si="6"/>
         <v>500</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="47" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" s="48"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="48"/>
-      <c r="L18" s="48"/>
-      <c r="M18" s="48"/>
-      <c r="N18" s="48"/>
-      <c r="O18" s="49"/>
-      <c r="P18" s="38">
+      <c r="A18" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="38"/>
+      <c r="N18" s="38"/>
+      <c r="O18" s="39"/>
+      <c r="P18" s="28">
         <f>SUM(P14:P17)</f>
         <v>8500</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" s="40"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="40"/>
-      <c r="L19" s="40"/>
-      <c r="M19" s="40"/>
-      <c r="N19" s="40"/>
-      <c r="O19" s="40"/>
-      <c r="P19" s="39">
+      <c r="A19" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="30"/>
+      <c r="O19" s="30"/>
+      <c r="P19" s="29">
         <f>P11+P18</f>
         <v>10000</v>
       </c>
